--- a/evaluations/Rodier-finding-gemma3-bert-scores.xlsx
+++ b/evaluations/Rodier-finding-gemma3-bert-scores.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul Sharma\OneDrive - UWA\Desktop\coroner\evaluations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BB1B70-4B2E-4A6C-9183-B4B9EA2C4294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>FILENAME</t>
   </si>
@@ -192,8 +198,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +211,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -256,13 +268,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -300,7 +320,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -334,6 +354,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -368,9 +389,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -543,14 +565,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -593,16 +617,22 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.9384461641311646</v>
+        <v>0.93844616413116455</v>
       </c>
       <c r="G2">
-        <v>0.9299600720405579</v>
+        <v>0.92996007204055786</v>
       </c>
       <c r="H2">
-        <v>0.9341837763786316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.93418377637863159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -613,16 +643,22 @@
         <v>41</v>
       </c>
       <c r="F3">
-        <v>0.9706040024757385</v>
+        <v>0.97060400247573853</v>
       </c>
       <c r="G3">
-        <v>0.9334365129470825</v>
+        <v>0.93343651294708252</v>
       </c>
       <c r="H3">
-        <v>0.9516574740409851</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.95165747404098511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -633,16 +669,22 @@
         <v>42</v>
       </c>
       <c r="F4">
-        <v>0.9811860918998718</v>
+        <v>0.98118609189987183</v>
       </c>
       <c r="G4">
-        <v>0.9854282736778259</v>
+        <v>0.98542827367782593</v>
       </c>
       <c r="H4">
-        <v>0.9833025932312012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.98330259323120117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
@@ -653,16 +695,22 @@
         <v>43</v>
       </c>
       <c r="F5">
-        <v>0.9008747339248657</v>
+        <v>0.90087473392486572</v>
       </c>
       <c r="G5">
-        <v>0.8707274198532104</v>
+        <v>0.87072741985321045</v>
       </c>
       <c r="H5">
         <v>0.8855445384979248</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -682,7 +730,13 @@
         <v>1.00000011920929</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -693,16 +747,22 @@
         <v>45</v>
       </c>
       <c r="F7">
-        <v>0.8594568967819214</v>
+        <v>0.85945689678192139</v>
       </c>
       <c r="G7">
-        <v>0.8322069644927979</v>
+        <v>0.83220696449279785</v>
       </c>
       <c r="H7">
-        <v>0.8456124663352966</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.84561246633529663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -713,16 +773,22 @@
         <v>46</v>
       </c>
       <c r="F8">
-        <v>0.9076846837997437</v>
+        <v>0.90768468379974365</v>
       </c>
       <c r="G8">
-        <v>0.8396009206771851</v>
+        <v>0.83960092067718506</v>
       </c>
       <c r="H8">
-        <v>0.8723163604736328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.87231636047363281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -733,16 +799,22 @@
         <v>47</v>
       </c>
       <c r="F9">
-        <v>0.9121056795120239</v>
+        <v>0.91210567951202393</v>
       </c>
       <c r="G9">
-        <v>0.8570505380630493</v>
+        <v>0.85705053806304932</v>
       </c>
       <c r="H9">
-        <v>0.8837214112281799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.88372141122817993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -753,16 +825,22 @@
         <v>48</v>
       </c>
       <c r="F10">
-        <v>0.8775123357772827</v>
+        <v>0.87751233577728271</v>
       </c>
       <c r="G10">
-        <v>0.9324143528938293</v>
+        <v>0.93241435289382935</v>
       </c>
       <c r="H10">
-        <v>0.9041306376457214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.90413063764572144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -773,16 +851,22 @@
         <v>49</v>
       </c>
       <c r="F11">
-        <v>0.8488996028900146</v>
+        <v>0.84889960289001465</v>
       </c>
       <c r="G11">
-        <v>0.9196764826774597</v>
+        <v>0.91967648267745972</v>
       </c>
       <c r="H11">
-        <v>0.8828718066215515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.88287180662155151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -793,16 +877,22 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>0.8355613350868225</v>
+        <v>0.83556133508682251</v>
       </c>
       <c r="G12">
-        <v>0.8321219682693481</v>
+        <v>0.83212196826934814</v>
       </c>
       <c r="H12">
-        <v>0.8338381052017212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.83383810520172119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -813,16 +903,22 @@
         <v>51</v>
       </c>
       <c r="F13">
-        <v>0.8480384945869446</v>
+        <v>0.84803849458694458</v>
       </c>
       <c r="G13">
-        <v>0.8451017737388611</v>
+        <v>0.84510177373886108</v>
       </c>
       <c r="H13">
-        <v>0.8465676307678223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.84656763076782227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
@@ -833,16 +929,22 @@
         <v>52</v>
       </c>
       <c r="F14">
-        <v>0.8573997020721436</v>
+        <v>0.85739970207214355</v>
       </c>
       <c r="G14">
-        <v>0.8647136688232422</v>
+        <v>0.86471366882324219</v>
       </c>
       <c r="H14">
-        <v>0.8610411882400513</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.86104118824005127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
@@ -853,16 +955,22 @@
         <v>53</v>
       </c>
       <c r="F15">
-        <v>0.8538374304771423</v>
+        <v>0.85383743047714233</v>
       </c>
       <c r="G15">
-        <v>0.8859509825706482</v>
+        <v>0.88595098257064819</v>
       </c>
       <c r="H15">
-        <v>0.8695977926254272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.86959779262542725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
@@ -873,16 +981,17 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>0.8175545930862427</v>
+        <v>0.81755459308624268</v>
       </c>
       <c r="G16">
         <v>0.8566288948059082</v>
       </c>
       <c r="H16">
-        <v>0.8366357088088989</v>
+        <v>0.83663570880889893</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>